--- a/doc/12_LINE連携システム.xlsx
+++ b/doc/12_LINE連携システム.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="０．全体概要" sheetId="1" state="visible" r:id="rId2"/>
@@ -83,7 +83,7 @@
     <t>Pub/Subに基づく軽量なメッセージプロトコル。</t>
   </si>
   <si>
-    <t>トラフィックはHTTPの10分の1以下にも削減される。</t>
+    <t>トラフィックはHTTPの10分の1以下にも削減されるらしい。</t>
   </si>
   <si>
     <t>多数のデバイス間で、短いメッセージを頻繁に送受信することを想定されたもの。</t>
@@ -169,9 +169,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="IPA Pゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t>②「アクセストークン」の「再発行」をクリックして</t>
     </r>
@@ -183,7 +183,35 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>アクセストークン</t>
+      <t>アクセストークンを控えておく。（有効期限は0）</t>
+    </r>
+  </si>
+  <si>
+    <t>　　併せて、同画面一番下の「Your user ID」も控えておく。</t>
+  </si>
+  <si>
+    <t>③LINEアプリで友達追加</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>同画面の「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>LINE</t>
     </r>
     <r>
       <rPr>
@@ -192,63 +220,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>を控えておく。（有効期限は0）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>　　併せて、同画面一番下の「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Your user ID」も控えておく。</t>
-    </r>
-  </si>
-  <si>
-    <t>③LINEアプリで友達追加</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>同画面の「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>LINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>アプリへの</t>
     </r>
@@ -260,8 +231,85 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>QR</t>
+      <t>QRコード」をスマホのLINEから読み取ると、登録したアプリ名が表示されるので友達追加しておく。</t>
     </r>
+  </si>
+  <si>
+    <t>１．４．Pythonプログラムの作成</t>
+  </si>
+  <si>
+    <t>①以下の内容で新規に「line_test.py」を作成し、実行する。</t>
+  </si>
+  <si>
+    <t># -*- coding: utf-8 -*-</t>
+  </si>
+  <si>
+    <t>日本語入力可能に</t>
+  </si>
+  <si>
+    <t>import requests</t>
+  </si>
+  <si>
+    <t>import json</t>
+  </si>
+  <si>
+    <t>jsonモジュールのインポート</t>
+  </si>
+  <si>
+    <t>#LINE</t>
+  </si>
+  <si>
+    <t>LINE_POST_URL = "https://api.line.me/v2/bot/message/push"</t>
+  </si>
+  <si>
+    <t>LINE_POST_ID = "XXXXX"</t>
+  </si>
+  <si>
+    <t>１．３の「Your user ID」</t>
+  </si>
+  <si>
+    <t>LINE_POST_TYPE_TEXT = "text"</t>
+  </si>
+  <si>
+    <t>LINE_POST_TYPE_STAMP = "sticker"</t>
+  </si>
+  <si>
+    <t>ACCESS_TOKEN = "XXXXX"</t>
+  </si>
+  <si>
+    <t>１．３の「アクセストークン」</t>
+  </si>
+  <si>
+    <t>headers = {</t>
+  </si>
+  <si>
+    <t>    "Content-Type" : "application/json",</t>
+  </si>
+  <si>
+    <t>    "Authorization" : "Bearer "+ ACCESS_TOKEN</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>#LINE Message</t>
+  </si>
+  <si>
+    <t>textData = {</t>
+  </si>
+  <si>
+    <t>    "to": LINE_POST_ID,</t>
+  </si>
+  <si>
+    <t>    "messages": [</t>
+  </si>
+  <si>
+    <t>        {</t>
+  </si>
+  <si>
+    <t>            "type": LINE_POST_TYPE_TEXT,</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -270,85 +318,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>コード」をスマホのLINEから読み取ると、登録したアプリ名が表示されるので友達追加しておく。</t>
+      <t>            "text": "</t>
     </r>
-  </si>
-  <si>
-    <t>１．４．Pythonプログラムの作成</t>
-  </si>
-  <si>
-    <t>①以下の内容で新規に「line_test.py」を作成し、実行する。</t>
-  </si>
-  <si>
-    <t># -*- coding: utf-8 -*-</t>
-  </si>
-  <si>
-    <t>日本語入力可能に</t>
-  </si>
-  <si>
-    <t>import requests</t>
-  </si>
-  <si>
-    <t>import json</t>
-  </si>
-  <si>
-    <t>jsonモジュールのインポート</t>
-  </si>
-  <si>
-    <t>#LINE</t>
-  </si>
-  <si>
-    <t>LINE_POST_URL = "https://api.line.me/v2/bot/message/push"</t>
-  </si>
-  <si>
-    <t>LINE_POST_ID = "XXXXX"</t>
-  </si>
-  <si>
-    <t>１．３の「Your user ID」</t>
-  </si>
-  <si>
-    <t>LINE_POST_TYPE_TEXT = "text"</t>
-  </si>
-  <si>
-    <t>LINE_POST_TYPE_STAMP = "sticker"</t>
-  </si>
-  <si>
-    <t>ACCESS_TOKEN = "XXXXX"</t>
-  </si>
-  <si>
-    <t>１．３の「アクセストークン」</t>
-  </si>
-  <si>
-    <t>headers = {</t>
-  </si>
-  <si>
-    <t>    "Content-Type" : "application/json",</t>
-  </si>
-  <si>
-    <t>    "Authorization" : "Bearer "+ ACCESS_TOKEN</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>#LINE Message</t>
-  </si>
-  <si>
-    <t>textData = {</t>
-  </si>
-  <si>
-    <t>    "to": LINE_POST_ID,</t>
-  </si>
-  <si>
-    <t>    "messages": [</t>
-  </si>
-  <si>
-    <t>        {</t>
-  </si>
-  <si>
-    <t>            "type": LINE_POST_TYPE_TEXT,</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -357,7 +328,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>            "text": "侵入者を検知しました</t>
+      <t>侵入者を検知しました</t>
     </r>
     <r>
       <rPr>
@@ -417,21 +388,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>$ python /home/pi/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>デスクトップ</t>
+      <t>$ python /home/pi/デスクトップ</t>
     </r>
     <r>
       <rPr>
@@ -452,9 +413,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="IPA Pゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t>以下</t>
     </r>
@@ -466,17 +427,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>へユーザ登録しログインする。（右上の「Sign Up」から登録）</t>
+      <t>URLへユーザ登録しログインする。（右上の「Sign Up」から登録）</t>
     </r>
   </si>
   <si>
@@ -539,16 +490,16 @@
     </r>
   </si>
   <si>
-    <t>④作成したチャンネルのトークンが表示されるので控えておく。（次頁で利用）</t>
+    <t>④作成したチャンネルのトークンが表示されるので控えておく。</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="IPA Pゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t>⑤以下</t>
     </r>
@@ -560,17 +511,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>より証明書をダウンロードし、Raspberry Pi上に配置しておく。</t>
+      <t>URLより証明書をダウンロードし、Raspberry Pi上に配置しておく。</t>
     </r>
   </si>
   <si>
@@ -621,11 +562,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>③青字の「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>③青字の「</t>
+      <t>+this</t>
     </r>
     <r>
       <rPr>
@@ -635,7 +586,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>+this</t>
+      <t>」をクリックし、検索窓に「</t>
     </r>
     <r>
       <rPr>
@@ -645,7 +596,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>」をクリックし、検索窓に「</t>
+      <t>webhooks</t>
     </r>
     <r>
       <rPr>
@@ -654,16 +605,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>webhooks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>」と入力して表示された</t>
     </r>
@@ -675,7 +616,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Webhooks</t>
+      <t>Webhooksアイコンをクリックし、「connect」をクリック。</t>
+    </r>
+  </si>
+  <si>
+    <t>④「Receive a web request …」をクリックする。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⑤Event Name</t>
     </r>
     <r>
       <rPr>
@@ -684,31 +640,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>アイコンをクリックし、「connect」をクリック。</t>
-    </r>
-  </si>
-  <si>
-    <t>④「Receive a web request …」をクリックする。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⑤Event Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>に「</t>
     </r>
@@ -720,7 +651,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>LINEEvent</t>
+      <t>LINEEvent」と入力し「Create trigger」をクリックする。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⑥青字の「＋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>that</t>
     </r>
     <r>
       <rPr>
@@ -729,38 +682,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>」と入力し「Create trigger」をクリックする。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⑥青字の「＋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>」をクリックし、③④と同様に「</t>
     </r>
@@ -772,35 +693,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Webhooks</t>
+      <t>Webhooks」を入力し「Make a web request」をクリックする。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>」を入力し「Make a web request」をクリックする。</t>
-    </r>
   </si>
   <si>
     <t>⑦以下の値を入力し「Create Action」をクリックする。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>URL</t>
-    </r>
     <r>
       <rPr>
         <b val="true"/>
@@ -811,7 +710,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>：</t>
+      <t>URL：</t>
     </r>
     <r>
       <rPr>
@@ -834,21 +733,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Method</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>：</t>
+      <t>Method：</t>
     </r>
     <r>
       <rPr>
@@ -866,21 +755,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ContentType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>：</t>
+      <t>ContentType：</t>
     </r>
     <r>
       <rPr>
@@ -904,11 +783,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⑨以下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>⑨以下</t>
+      <t>URL</t>
     </r>
     <r>
       <rPr>
@@ -917,16 +806,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>の「</t>
     </r>
@@ -938,17 +817,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Documentation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>」をクリックし、Webhook用のキーを取得し控えておく。</t>
+      <t>Documentation」をクリックし、Webhook用のキーを取得し控えておく。</t>
     </r>
   </si>
   <si>
@@ -980,31 +849,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>WebhookURL</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：</t>
+      <t>・WebhookURL：</t>
     </r>
     <r>
       <rPr>
@@ -1027,9 +872,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="IPA Pゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t>４．２．</t>
     </r>
@@ -1041,18 +886,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>LINE</t>
+      <t>LINE～Beebotteまでの接続確認</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>～Beebotteまでの接続確認</t>
-    </r>
   </si>
   <si>
     <t>①以下URLにアクセスし、作成したチャンネルをクリック。</t>
@@ -1064,7 +899,7 @@
     <t>②値を入力し「Subscribe」をクリック。</t>
   </si>
   <si>
-    <t>・Secret Key：４．２で取得したトークン</t>
+    <t>・Secret Key：２．２で取得したトークン</t>
   </si>
   <si>
     <r>
@@ -1075,27 +910,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Channel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
+      <t>・Channel：</t>
     </r>
     <r>
       <rPr>
@@ -1117,27 +932,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>：</t>
+      <t>・Resource：</t>
     </r>
     <r>
       <rPr>
@@ -1155,9 +950,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="IPA Pゴシック"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t>③右下の</t>
     </r>
@@ -1169,7 +964,134 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Log</t>
+      <t>Logボックスにsubscribeのログが表示されていることを確認する。</t>
+    </r>
+  </si>
+  <si>
+    <t>④LINEアプリ上から、６．３で友達追加したアプリへメッセージを送信する。</t>
+  </si>
+  <si>
+    <t>※メッセージ内容は任意。</t>
+  </si>
+  <si>
+    <t>⑤右上のMessageボックスにログが表示されることを確認する。</t>
+  </si>
+  <si>
+    <t>６．３．Pythonプログラムの作成</t>
+  </si>
+  <si>
+    <t>①以下コマンドでMQTT用パッケージをインストールする。</t>
+  </si>
+  <si>
+    <t>$ sudo pip install paho-mqtt</t>
+  </si>
+  <si>
+    <t>※成功すると「Successfully installd paho-mqtt-…」と表示される。</t>
+  </si>
+  <si>
+    <t>②以下の内容で新規に「mqtt_test.py」を作成し、実行する。</t>
+  </si>
+  <si>
+    <t>import paho.mqtt.client as mqtt</t>
+  </si>
+  <si>
+    <t>MQTT用モジュールのインポート</t>
+  </si>
+  <si>
+    <t>#MQTT define</t>
+  </si>
+  <si>
+    <t>TOKEN = "XXXXXXX"</t>
+  </si>
+  <si>
+    <t>XXXXXXXは２．２で控えたトークンを設定</t>
+  </si>
+  <si>
+    <t>HOSTNAME = "mqtt.beebotte.com"</t>
+  </si>
+  <si>
+    <t>PORT = 8883</t>
+  </si>
+  <si>
+    <t>TOPIC = "pichannel/action"</t>
+  </si>
+  <si>
+    <t>２．２で入力したものを設定</t>
+  </si>
+  <si>
+    <t>CACERT = "/home/pi/tmp/mqtt.beebotte.com.pem"</t>
+  </si>
+  <si>
+    <t>２．２で配置したパスを設定</t>
+  </si>
+  <si>
+    <t>#MQTT subscribe</t>
+  </si>
+  <si>
+    <t>def on_connect(client, userdata, flags, respons_code):</t>
+  </si>
+  <si>
+    <t>ここは気にせずコピペでOK（個別に変えることはない）</t>
+  </si>
+  <si>
+    <t>    client.subscribe(TOPIC)</t>
+  </si>
+  <si>
+    <t>def on_message(client, userdata, msg):</t>
+  </si>
+  <si>
+    <t>def　on_message(client, userdata, msg):　の後に記載した処理が、LINE受信時に実行される。</t>
+  </si>
+  <si>
+    <t>    print("OK!")</t>
+  </si>
+  <si>
+    <t>ここでは「OK!」とコンソールに表示させるだけ。</t>
+  </si>
+  <si>
+    <t>client = mqtt.Client()</t>
+  </si>
+  <si>
+    <t>client.username_pw_set("token:%s"%TOKEN)</t>
+  </si>
+  <si>
+    <t>client.on_connect = on_connect</t>
+  </si>
+  <si>
+    <t>client.on_message = on_message</t>
+  </si>
+  <si>
+    <t>client.tls_set(CACERT)</t>
+  </si>
+  <si>
+    <t>client.connect(HOSTNAME, port=PORT, keepalive=60)</t>
+  </si>
+  <si>
+    <t>client.loop_forever()</t>
+  </si>
+  <si>
+    <t>③LINEアプリ上から、１．３で友達追加したアプリへメッセージを送信する。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="IPA Pゴシック"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>　（現状のLINE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>API</t>
     </r>
     <r>
       <rPr>
@@ -1178,162 +1100,6 @@
         <rFont val="IPA Pゴシック"/>
         <family val="2"/>
         <charset val="1"/>
-      </rPr>
-      <t>ボックスにsubscribeのログが表示されていることを確認する。</t>
-    </r>
-  </si>
-  <si>
-    <t>④LINEアプリ上から、６．３で友達追加したアプリへメッセージを送信する。</t>
-  </si>
-  <si>
-    <t>※メッセージ内容は任意。</t>
-  </si>
-  <si>
-    <t>⑤右上のMessageボックスにログが表示されることを確認する。</t>
-  </si>
-  <si>
-    <t>６．３．Pythonプログラムの作成</t>
-  </si>
-  <si>
-    <t>①以下コマンドでMQTT用パッケージをインストールする。</t>
-  </si>
-  <si>
-    <t>$ sudo pip install paho-mqtt</t>
-  </si>
-  <si>
-    <t>※成功すると「Successfully installd paho-mqtt-…」と表示される。</t>
-  </si>
-  <si>
-    <t>②以下の内容で新規に「mqtt_test.py」を作成し、実行する。</t>
-  </si>
-  <si>
-    <t>import paho.mqtt.client as mqtt</t>
-  </si>
-  <si>
-    <t>MQTT用モジュールのインポート</t>
-  </si>
-  <si>
-    <t>#MQTT define</t>
-  </si>
-  <si>
-    <t>TOKEN = "XXXXXXX"</t>
-  </si>
-  <si>
-    <t>XXXXXXXは２．２で控えたトークンを設定</t>
-  </si>
-  <si>
-    <t>HOSTNAME = "mqtt.beebotte.com"</t>
-  </si>
-  <si>
-    <t>PORT = 8883</t>
-  </si>
-  <si>
-    <t>TOPIC = "pichannel/action"</t>
-  </si>
-  <si>
-    <t>２．２で入力したものを設定</t>
-  </si>
-  <si>
-    <t>CACERT = "/home/pi/tmp/mqtt.beebotte.com.pem"</t>
-  </si>
-  <si>
-    <t>２．２で配置したパスを設定</t>
-  </si>
-  <si>
-    <t>#MQTT subscribe</t>
-  </si>
-  <si>
-    <t>def on_connect(client, userdata, flags, respons_code):</t>
-  </si>
-  <si>
-    <t>ここは気にせずコピペでOK（個別に変えることはない）</t>
-  </si>
-  <si>
-    <t>    client.subscribe(TOPIC)</t>
-  </si>
-  <si>
-    <t>def on_message(client, userdata, msg):</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>def　on_message(client, userdata, msg):　の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>後に記載した処理が、LINE受信時に実行される。</t>
-    </r>
-  </si>
-  <si>
-    <t>    print("OK!")</t>
-  </si>
-  <si>
-    <t>ここでは「OK!」とコンソールに表示させるだけ。</t>
-  </si>
-  <si>
-    <t>client = mqtt.Client()</t>
-  </si>
-  <si>
-    <t>client.username_pw_set("token:%s"%TOKEN)</t>
-  </si>
-  <si>
-    <t>client.on_connect = on_connect</t>
-  </si>
-  <si>
-    <t>client.on_message = on_message</t>
-  </si>
-  <si>
-    <t>client.tls_set(CACERT)</t>
-  </si>
-  <si>
-    <t>client.connect(HOSTNAME, port=PORT, keepalive=60)</t>
-  </si>
-  <si>
-    <t>client.loop_forever()</t>
-  </si>
-  <si>
-    <t>③LINEアプリ上から、１．３で友達追加したアプリへメッセージを送信する。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　（現状のLINE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>仕様上、</t>
     </r>
@@ -1345,17 +1111,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>LINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="IPA Pゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>のメッセージ内容そのものはIFTTTに連携できないため、送信したい場合は、IFTTTではない別のサービスを使う必要がある）</t>
+      <t>LINEのメッセージ内容そのものはIFTTTに連携できないため、送信したい場合は、IFTTTではない別のサービスを使う必要がある）</t>
     </r>
   </si>
   <si>
@@ -1369,7 +1125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1418,22 +1174,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="IPA Pゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF3333"/>
       <name val="IPA Pゴシック"/>
@@ -1452,18 +1192,18 @@
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="IPA Pゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="IPA Pゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
@@ -1481,13 +1221,6 @@
       <color rgb="FF7030A0"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1613,7 +1346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1630,14 +1363,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1650,7 +1375,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,19 +1407,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1788,15 +1509,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:colOff>216720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1809,8 +1530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="288360" y="3024360"/>
-          <a:ext cx="6149520" cy="2485080"/>
+          <a:off x="258480" y="3139920"/>
+          <a:ext cx="6149160" cy="2484720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1832,15 +1553,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>195120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>158760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1853,8 +1574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="641160" y="1269000"/>
-          <a:ext cx="6672600" cy="2934000"/>
+          <a:off x="668160" y="1260000"/>
+          <a:ext cx="6672240" cy="2933640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,15 +1590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>158760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1886,8 +1607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4603680" y="3671280"/>
-          <a:ext cx="1967040" cy="326880"/>
+          <a:off x="4630680" y="3662280"/>
+          <a:ext cx="1966680" cy="326520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1920,15 +1641,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>192240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1941,8 +1662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660240" y="4861800"/>
-          <a:ext cx="6596280" cy="4000320"/>
+          <a:off x="687240" y="4852800"/>
+          <a:ext cx="6595920" cy="3999960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1957,15 +1678,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>180720</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
+      <xdr:colOff>57600</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1978,8 +1699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="675720" y="9882720"/>
-          <a:ext cx="6536880" cy="3834000"/>
+          <a:off x="702720" y="9873720"/>
+          <a:ext cx="6536520" cy="3833640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,15 +1715,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2015,8 +1736,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696960" y="14845320"/>
-          <a:ext cx="4851720" cy="4201560"/>
+          <a:off x="723960" y="14836320"/>
+          <a:ext cx="4851360" cy="4201200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,15 +1752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
+      <xdr:colOff>223560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>181080</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2048,8 +1769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="939240" y="7031160"/>
-          <a:ext cx="1965960" cy="326880"/>
+          <a:off x="966240" y="7022160"/>
+          <a:ext cx="1965600" cy="326520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,15 +1803,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
+      <xdr:colOff>245880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>230040</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2099,8 +1820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="713880" y="12802320"/>
-          <a:ext cx="1965960" cy="328320"/>
+          <a:off x="740880" y="12793320"/>
+          <a:ext cx="1965600" cy="327960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,15 +1854,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2150,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="793440" y="15566400"/>
-          <a:ext cx="2741760" cy="3260880"/>
+          <a:off x="820440" y="15557400"/>
+          <a:ext cx="2741400" cy="3260520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2209,15 +1930,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2230,8 +1951,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="709560" y="20096280"/>
-          <a:ext cx="5234400" cy="1091160"/>
+          <a:off x="736560" y="20087280"/>
+          <a:ext cx="5234040" cy="1090800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2246,15 +1967,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>193320</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233280</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>12240</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>235800</xdr:rowOff>
+      <xdr:rowOff>226440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2263,8 +1984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5126760" y="20645280"/>
-          <a:ext cx="802440" cy="280440"/>
+          <a:off x="5153760" y="20636280"/>
+          <a:ext cx="802080" cy="280080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,15 +2018,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2314,8 +2035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2113560" y="20511360"/>
-          <a:ext cx="2842560" cy="528120"/>
+          <a:off x="2140560" y="20502360"/>
+          <a:ext cx="2842200" cy="527760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,15 +2074,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2374,8 +2095,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="656280" y="1419120"/>
-          <a:ext cx="7683840" cy="1276920"/>
+          <a:off x="683280" y="1410120"/>
+          <a:ext cx="7683480" cy="1276560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,15 +2113,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>71640</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2409,8 +2130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7005600" y="1805760"/>
-          <a:ext cx="1233720" cy="219600"/>
+          <a:off x="7032600" y="1796760"/>
+          <a:ext cx="1233360" cy="219240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,15 +2164,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>71280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2464,8 +2185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645120" y="3268080"/>
-          <a:ext cx="9552960" cy="1103760"/>
+          <a:off x="672120" y="3259080"/>
+          <a:ext cx="9552600" cy="1103400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2482,15 +2203,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>195480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2499,8 +2220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6606720" y="3692160"/>
-          <a:ext cx="1001880" cy="363960"/>
+          <a:off x="6633720" y="3683160"/>
+          <a:ext cx="1001520" cy="363600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,15 +2254,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>82800</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2554,8 +2275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825480" y="5489640"/>
-          <a:ext cx="9406080" cy="4512960"/>
+          <a:off x="852480" y="5480640"/>
+          <a:ext cx="9405720" cy="4512600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,16 +2290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2587,8 +2308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2716200" y="6579360"/>
-          <a:ext cx="1001520" cy="1015200"/>
+          <a:off x="2743200" y="6570360"/>
+          <a:ext cx="1001160" cy="1014840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2621,15 +2342,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>211320</xdr:rowOff>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2638,8 +2359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2903400" y="8596440"/>
-          <a:ext cx="4637880" cy="354960"/>
+          <a:off x="2930400" y="8587440"/>
+          <a:ext cx="4637520" cy="354600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2672,15 +2393,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>41400</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>169920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2693,8 +2414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="757080" y="10463760"/>
-          <a:ext cx="7558560" cy="2376360"/>
+          <a:off x="784080" y="10454760"/>
+          <a:ext cx="7558200" cy="2376000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2711,15 +2432,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:colOff>239400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>237960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2728,8 +2449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1834200" y="11376000"/>
-          <a:ext cx="1845360" cy="352080"/>
+          <a:off x="1861200" y="11367000"/>
+          <a:ext cx="1845000" cy="351720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2767,15 +2488,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2788,8 +2509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="633960" y="1407960"/>
-          <a:ext cx="6805800" cy="623880"/>
+          <a:off x="660960" y="1398960"/>
+          <a:ext cx="6805440" cy="623520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2805,16 +2526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2823,8 +2544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4190760" y="1475280"/>
-          <a:ext cx="1526400" cy="348480"/>
+          <a:off x="4217760" y="1466280"/>
+          <a:ext cx="1526040" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2857,15 +2578,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>198360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2878,8 +2599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645120" y="2655000"/>
-          <a:ext cx="6840000" cy="1474920"/>
+          <a:off x="672120" y="2646000"/>
+          <a:ext cx="6839640" cy="1474560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2896,15 +2617,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>223920</xdr:rowOff>
+      <xdr:rowOff>214920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,8 +2634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6487920" y="3431880"/>
-          <a:ext cx="951120" cy="348480"/>
+          <a:off x="6514920" y="3422880"/>
+          <a:ext cx="950760" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2947,15 +2668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2968,8 +2689,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="678960" y="4744800"/>
-          <a:ext cx="6208920" cy="3606840"/>
+          <a:off x="705960" y="4735800"/>
+          <a:ext cx="6208560" cy="3606480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2986,15 +2707,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>48240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3003,8 +2724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3983400" y="6835680"/>
-          <a:ext cx="1542960" cy="1473480"/>
+          <a:off x="4010400" y="6826680"/>
+          <a:ext cx="1542600" cy="1473120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3037,15 +2758,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3058,8 +2779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="712440" y="8857080"/>
-          <a:ext cx="6202440" cy="4036680"/>
+          <a:off x="739440" y="8848080"/>
+          <a:ext cx="6202080" cy="4036320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,15 +2797,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>172440</xdr:colOff>
+      <xdr:colOff>199440</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3093,8 +2814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="915120" y="10739520"/>
-          <a:ext cx="2235600" cy="2093400"/>
+          <a:off x="942120" y="10730520"/>
+          <a:ext cx="2235240" cy="2093040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3126,16 +2847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>232920</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12240</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3148,8 +2869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="727920" y="13354920"/>
-          <a:ext cx="5310720" cy="5862960"/>
+          <a:off x="754920" y="13345920"/>
+          <a:ext cx="5310360" cy="5862600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3166,15 +2887,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>60120</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3183,8 +2904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1271160" y="17100360"/>
-          <a:ext cx="3930480" cy="655200"/>
+          <a:off x="1298160" y="17091360"/>
+          <a:ext cx="3930120" cy="654840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3217,15 +2938,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>180720</xdr:colOff>
+      <xdr:colOff>207360</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3234,98 +2955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1989720" y="18252720"/>
-          <a:ext cx="2400840" cy="662040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="734760" y="19783080"/>
-          <a:ext cx="8511120" cy="4128840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>194760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>212400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="993600" y="21261960"/>
-          <a:ext cx="3114000" cy="2637000"/>
+          <a:off x="2016720" y="18243720"/>
+          <a:ext cx="2400480" cy="661680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3358,15 +2989,105 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>109800</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>216000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 17" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761760" y="19774080"/>
+          <a:ext cx="8510760" cy="4128480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30240</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172080</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>203040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1020600" y="21252960"/>
+          <a:ext cx="3113640" cy="2636640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60120</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>234000</xdr:rowOff>
+      <xdr:rowOff>225000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3379,8 +3100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="775800" y="26666280"/>
-          <a:ext cx="7961040" cy="2452680"/>
+          <a:off x="802800" y="26657280"/>
+          <a:ext cx="7960680" cy="2452320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,15 +3116,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
+      <xdr:colOff>198720</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>229320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3412,8 +3133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372280" y="26706960"/>
-          <a:ext cx="1796760" cy="430920"/>
+          <a:off x="5399280" y="26697960"/>
+          <a:ext cx="1796400" cy="430560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3446,15 +3167,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>206280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3463,8 +3184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2655720" y="6215040"/>
-          <a:ext cx="4142520" cy="505080"/>
+          <a:off x="2682720" y="6206040"/>
+          <a:ext cx="4142160" cy="504720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3502,15 +3223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3523,8 +3244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="697320" y="503280"/>
-          <a:ext cx="4851360" cy="3876120"/>
+          <a:off x="724320" y="494280"/>
+          <a:ext cx="4851000" cy="3875760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3539,15 +3260,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>215280</xdr:rowOff>
+      <xdr:rowOff>206280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3556,8 +3277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="766800" y="1147320"/>
-          <a:ext cx="2741760" cy="3196080"/>
+          <a:off x="793800" y="1138320"/>
+          <a:ext cx="2741400" cy="3195720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3615,15 +3336,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3636,8 +3357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="864360" y="14029560"/>
-          <a:ext cx="4565880" cy="1208160"/>
+          <a:off x="891360" y="14020560"/>
+          <a:ext cx="4565520" cy="1207800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3655,15 +3376,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3676,8 +3397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883440" y="9354240"/>
-          <a:ext cx="6555240" cy="4342680"/>
+          <a:off x="910440" y="9345240"/>
+          <a:ext cx="6554880" cy="4342320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3694,15 +3415,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>230040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>198720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3711,8 +3432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1884600" y="9398880"/>
-          <a:ext cx="2280960" cy="354600"/>
+          <a:off x="1911600" y="9389880"/>
+          <a:ext cx="2280600" cy="354240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,15 +3491,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3787,8 +3508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1149120" y="11374200"/>
-          <a:ext cx="2690280" cy="815400"/>
+          <a:off x="1176120" y="11365200"/>
+          <a:ext cx="2689920" cy="815040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3846,15 +3567,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>220680</xdr:rowOff>
+      <xdr:rowOff>211320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3867,8 +3588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="823680" y="16704720"/>
-          <a:ext cx="4641840" cy="761040"/>
+          <a:off x="850680" y="16695720"/>
+          <a:ext cx="4641480" cy="760680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3885,15 +3606,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3906,8 +3627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765000" y="5424120"/>
-          <a:ext cx="7567920" cy="1688400"/>
+          <a:off x="792000" y="5415120"/>
+          <a:ext cx="7567560" cy="1688040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3922,15 +3643,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>227880</xdr:rowOff>
+      <xdr:rowOff>218880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3939,8 +3660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127880" y="12346200"/>
-          <a:ext cx="1016640" cy="491760"/>
+          <a:off x="1154880" y="12337200"/>
+          <a:ext cx="1016280" cy="491400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4006,7 +3727,7 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4259,12 +3980,12 @@
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4274,7 +3995,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4289,862 +4010,862 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="8"/>
-      <c r="AD98" s="9" t="s">
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="AC99" s="12"/>
-      <c r="AD99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
-      <c r="AC100" s="12"/>
-      <c r="AD100" s="9" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="10"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
-      <c r="AC101" s="12"/>
-      <c r="AD101" s="9"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
       <c r="X102" s="1"/>
-      <c r="AC102" s="12"/>
-      <c r="AD102" s="9"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
-      <c r="AC103" s="12"/>
-      <c r="AD103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="AC103" s="10"/>
+      <c r="AD103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
-      <c r="AC104" s="12"/>
-      <c r="AD104" s="9" t="s">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="AC104" s="10"/>
+      <c r="AD104" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
-      <c r="AC105" s="12"/>
-      <c r="AD105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="11"/>
-      <c r="AC106" s="12"/>
-      <c r="AD106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="AC106" s="10"/>
+      <c r="AD106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="11"/>
-      <c r="AC107" s="12"/>
-      <c r="AD107" s="9" t="s">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="AC107" s="10"/>
+      <c r="AD107" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="10"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="11"/>
-      <c r="AC108" s="12"/>
-      <c r="AD108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="AC108" s="10"/>
+      <c r="AD108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="11"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="AC109" s="10"/>
+      <c r="AD109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11"/>
-      <c r="V110" s="11"/>
-      <c r="W110" s="11"/>
-      <c r="AC110" s="12"/>
-      <c r="AD110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="AC110" s="10"/>
+      <c r="AD110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
-      <c r="U111" s="11"/>
-      <c r="V111" s="11"/>
-      <c r="W111" s="11"/>
-      <c r="AC111" s="12"/>
-      <c r="AD111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="AC111" s="10"/>
+      <c r="AD111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11"/>
-      <c r="V112" s="11"/>
-      <c r="W112" s="11"/>
-      <c r="AC112" s="12"/>
-      <c r="AD112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="AC112" s="10"/>
+      <c r="AD112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="10"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="11"/>
-      <c r="AC113" s="12"/>
-      <c r="AD113" s="9"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="AC113" s="10"/>
+      <c r="AD113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
-      <c r="U114" s="11"/>
-      <c r="V114" s="11"/>
-      <c r="W114" s="11"/>
-      <c r="AC114" s="12"/>
-      <c r="AD114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="AC114" s="10"/>
+      <c r="AD114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="AC115" s="12"/>
-      <c r="AD115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="AC115" s="10"/>
+      <c r="AD115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11"/>
-      <c r="U116" s="11"/>
-      <c r="V116" s="11"/>
-      <c r="W116" s="11"/>
-      <c r="AC116" s="12"/>
-      <c r="AD116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="AC116" s="10"/>
+      <c r="AD116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11"/>
-      <c r="U117" s="11"/>
-      <c r="V117" s="11"/>
-      <c r="W117" s="11"/>
-      <c r="AC117" s="12"/>
-      <c r="AD117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="AC117" s="10"/>
+      <c r="AD117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11"/>
-      <c r="U118" s="11"/>
-      <c r="V118" s="11"/>
-      <c r="W118" s="11"/>
-      <c r="AC118" s="12"/>
-      <c r="AD118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="AC118" s="10"/>
+      <c r="AD118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
-      <c r="O119" s="11"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11"/>
-      <c r="U119" s="11"/>
-      <c r="V119" s="11"/>
-      <c r="W119" s="11"/>
-      <c r="AC119" s="12"/>
-      <c r="AD119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="AC119" s="10"/>
+      <c r="AD119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
-      <c r="U120" s="11"/>
-      <c r="V120" s="11"/>
-      <c r="W120" s="11"/>
-      <c r="AC120" s="12"/>
-      <c r="AD120" s="9" t="s">
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="AC120" s="10"/>
+      <c r="AD120" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11"/>
-      <c r="U121" s="11"/>
-      <c r="V121" s="11"/>
-      <c r="W121" s="11"/>
-      <c r="AC121" s="12"/>
-      <c r="AD121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="AC121" s="10"/>
+      <c r="AD121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11"/>
-      <c r="U122" s="11"/>
-      <c r="V122" s="11"/>
-      <c r="W122" s="11"/>
-      <c r="AC122" s="12"/>
-      <c r="AD122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="AC122" s="10"/>
+      <c r="AD122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
-      <c r="P123" s="11"/>
-      <c r="Q123" s="11"/>
-      <c r="R123" s="11"/>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11"/>
-      <c r="U123" s="11"/>
-      <c r="V123" s="11"/>
-      <c r="W123" s="11"/>
-      <c r="AC123" s="12"/>
-      <c r="AD123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="AC123" s="10"/>
+      <c r="AD123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="W124" s="11"/>
-      <c r="AC124" s="12"/>
-      <c r="AD124" s="9" t="s">
+      <c r="W124" s="9"/>
+      <c r="AC124" s="10"/>
+      <c r="AD124" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="10"/>
-      <c r="W125" s="11"/>
-      <c r="AC125" s="12"/>
-      <c r="AD125" s="9"/>
+      <c r="C125" s="8"/>
+      <c r="W125" s="9"/>
+      <c r="AC125" s="10"/>
+      <c r="AD125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W126" s="11"/>
-      <c r="AC126" s="12"/>
-      <c r="AD126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="AC126" s="10"/>
+      <c r="AD126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="W127" s="11"/>
-      <c r="AC127" s="12"/>
-      <c r="AD127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="AC127" s="10"/>
+      <c r="AD127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="W128" s="11"/>
-      <c r="AC128" s="12"/>
-      <c r="AD128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="AC128" s="10"/>
+      <c r="AD128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W129" s="11"/>
-      <c r="AC129" s="12"/>
-      <c r="AD129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="AC129" s="10"/>
+      <c r="AD129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="W130" s="11"/>
-      <c r="AC130" s="12"/>
-      <c r="AD130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="AC130" s="10"/>
+      <c r="AD130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="W131" s="11"/>
-      <c r="AC131" s="12"/>
-      <c r="AD131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="AC131" s="10"/>
+      <c r="AD131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="W132" s="11"/>
-      <c r="AC132" s="12"/>
-      <c r="AD132" s="9" t="s">
+      <c r="W132" s="9"/>
+      <c r="AC132" s="10"/>
+      <c r="AD132" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W133" s="11"/>
-      <c r="AC133" s="12"/>
-      <c r="AD133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="AC133" s="10"/>
+      <c r="AD133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W134" s="11"/>
-      <c r="AC134" s="12"/>
-      <c r="AD134" s="9"/>
+      <c r="W134" s="9"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="W135" s="11"/>
-      <c r="AC135" s="12"/>
-      <c r="AD135" s="9"/>
+      <c r="W135" s="9"/>
+      <c r="AC135" s="10"/>
+      <c r="AD135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="W136" s="11"/>
-      <c r="AC136" s="12"/>
-      <c r="AD136" s="9"/>
+      <c r="W136" s="9"/>
+      <c r="AC136" s="10"/>
+      <c r="AD136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="W137" s="11"/>
-      <c r="AC137" s="12"/>
-      <c r="AD137" s="9" t="s">
+      <c r="W137" s="9"/>
+      <c r="AC137" s="10"/>
+      <c r="AD137" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="14"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-      <c r="T138" s="15"/>
-      <c r="U138" s="15"/>
-      <c r="V138" s="15"/>
-      <c r="W138" s="15"/>
-      <c r="X138" s="15"/>
-      <c r="Y138" s="15"/>
-      <c r="Z138" s="15"/>
-      <c r="AA138" s="15"/>
-      <c r="AB138" s="15"/>
-      <c r="AC138" s="16"/>
-      <c r="AD138" s="9"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13"/>
+      <c r="R138" s="13"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="13"/>
+      <c r="U138" s="13"/>
+      <c r="V138" s="13"/>
+      <c r="W138" s="13"/>
+      <c r="X138" s="13"/>
+      <c r="Y138" s="13"/>
+      <c r="Z138" s="13"/>
+      <c r="AA138" s="13"/>
+      <c r="AB138" s="13"/>
+      <c r="AC138" s="14"/>
+      <c r="AD138" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
@@ -5157,7 +4878,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5295,7 +5016,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5341,7 +5062,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5418,7 +5139,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5428,12 +5149,12 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5443,7 +5164,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AE104" s="1" t="s">
@@ -5451,17 +5172,17 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5471,7 +5192,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5538,7 +5259,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AC23" s="1" t="s">
@@ -5546,7 +5267,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5581,7 +5302,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5611,7 +5332,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5626,634 +5347,634 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="9" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C85" s="13"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="9"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="9" t="s">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="9" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="9" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C92" s="13"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="9"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="9" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C96" s="13"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="9"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="20" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="11"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="9" t="s">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C99" s="13"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="9"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="9" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11"/>
-      <c r="U106" s="11"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="23"/>
-      <c r="X107" s="9"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
@@ -6266,7 +5987,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>167</v>
       </c>
     </row>
